--- a/hebrewOutputs/hebrew82Comperation_11_Common_alpha=0.32.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_11_Common_alpha=0.32.xlsx
@@ -34,13 +34,13 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שלום, </t>
+  </si>
+  <si>
     <t>Unknown</t>
-  </si>
-  <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שלום, </t>
   </si>
   <si>
     <t>הורה:</t>
@@ -886,21 +886,21 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -928,7 +928,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -942,10 +942,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -956,10 +956,10 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -970,7 +970,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -984,10 +984,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -998,10 +998,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1012,7 +1012,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1026,10 +1026,10 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1043,7 +1043,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1054,7 +1054,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -1068,10 +1068,10 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1082,10 +1082,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1096,7 +1096,7 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1110,10 +1110,10 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1124,7 +1124,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1138,10 +1138,10 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1152,7 +1152,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1166,10 +1166,10 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1180,7 +1180,7 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1197,7 +1197,7 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1208,10 +1208,10 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1222,7 +1222,7 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1236,10 +1236,10 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1250,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1264,10 +1264,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1292,7 +1292,7 @@
         <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1306,10 +1306,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1337,7 +1337,7 @@
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1348,7 +1348,7 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1365,7 +1365,7 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1390,10 +1390,10 @@
         <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1404,7 +1404,7 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1418,10 +1418,10 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1432,7 +1432,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1446,10 +1446,10 @@
         <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1463,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1474,7 +1474,7 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1488,10 +1488,10 @@
         <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1516,10 +1516,10 @@
         <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1530,7 +1530,7 @@
         <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1544,7 +1544,7 @@
         <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1572,10 +1572,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1600,10 +1600,10 @@
         <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1628,10 +1628,10 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1642,10 +1642,10 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1656,7 +1656,7 @@
         <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -1684,7 +1684,7 @@
         <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -1698,7 +1698,7 @@
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -1712,10 +1712,10 @@
         <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1726,7 +1726,7 @@
         <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -1740,10 +1740,10 @@
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1754,10 +1754,10 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1768,10 +1768,10 @@
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1782,7 +1782,7 @@
         <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -1796,10 +1796,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1810,10 +1810,10 @@
         <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1827,7 +1827,7 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1838,7 +1838,7 @@
         <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -1855,7 +1855,7 @@
         <v>41</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1866,7 +1866,7 @@
         <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -1894,7 +1894,7 @@
         <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
@@ -1911,7 +1911,7 @@
         <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1936,10 +1936,10 @@
         <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1964,10 +1964,10 @@
         <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1978,10 +1978,10 @@
         <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1992,10 +1992,10 @@
         <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2006,7 +2006,7 @@
         <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
@@ -2034,7 +2034,7 @@
         <v>41</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
@@ -2051,7 +2051,7 @@
         <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2062,7 +2062,7 @@
         <v>108</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -2093,7 +2093,7 @@
         <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2104,7 +2104,7 @@
         <v>33</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -2118,10 +2118,10 @@
         <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2132,10 +2132,10 @@
         <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2149,7 +2149,7 @@
         <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2163,7 +2163,7 @@
         <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2174,7 +2174,7 @@
         <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2188,10 +2188,10 @@
         <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2202,7 +2202,7 @@
         <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -2216,10 +2216,10 @@
         <v>25</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2230,10 +2230,10 @@
         <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2244,7 +2244,7 @@
         <v>93</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
@@ -2258,10 +2258,10 @@
         <v>79</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2272,10 +2272,10 @@
         <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2286,7 +2286,7 @@
         <v>93</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
         <v>9</v>
@@ -2300,7 +2300,7 @@
         <v>21</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -2317,7 +2317,7 @@
         <v>41</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2328,10 +2328,10 @@
         <v>25</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2342,7 +2342,7 @@
         <v>93</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -2356,10 +2356,10 @@
         <v>79</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2370,10 +2370,10 @@
         <v>25</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2384,7 +2384,7 @@
         <v>93</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -2398,7 +2398,7 @@
         <v>79</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
@@ -2426,10 +2426,10 @@
         <v>33</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2457,7 +2457,7 @@
         <v>41</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2468,7 +2468,7 @@
         <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -2482,10 +2482,10 @@
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2496,7 +2496,7 @@
         <v>108</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
@@ -2513,7 +2513,7 @@
         <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2524,7 +2524,7 @@
         <v>21</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -2541,7 +2541,7 @@
         <v>41</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2566,10 +2566,10 @@
         <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2580,10 +2580,10 @@
         <v>41</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2594,10 +2594,10 @@
         <v>147</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2608,10 +2608,10 @@
         <v>147</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2625,7 +2625,7 @@
         <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2636,10 +2636,10 @@
         <v>151</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2650,7 +2650,7 @@
         <v>93</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
@@ -2664,10 +2664,10 @@
         <v>25</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2678,7 +2678,7 @@
         <v>93</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
@@ -2692,10 +2692,10 @@
         <v>156</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2706,7 +2706,7 @@
         <v>41</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D132" t="s">
         <v>9</v>
@@ -2720,10 +2720,10 @@
         <v>101</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2734,7 +2734,7 @@
         <v>79</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
@@ -2748,10 +2748,10 @@
         <v>156</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2762,7 +2762,7 @@
         <v>31</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
@@ -2779,7 +2779,7 @@
         <v>41</v>
       </c>
       <c r="D137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2790,7 +2790,7 @@
         <v>93</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D138" t="s">
         <v>9</v>
@@ -2804,10 +2804,10 @@
         <v>25</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2821,7 +2821,7 @@
         <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2832,10 +2832,10 @@
         <v>111</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2846,7 +2846,7 @@
         <v>167</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
@@ -2863,7 +2863,7 @@
         <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2874,10 +2874,10 @@
         <v>25</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2888,10 +2888,10 @@
         <v>151</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
